--- a/SeguimientosSOAPI/Matriz de seguimiento compromisos SOAPI 180119.xlsx
+++ b/SeguimientosSOAPI/Matriz de seguimiento compromisos SOAPI 180119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\SeguimientosSOAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BEE080-A5B1-476F-B141-5B2AA099B680}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1378FF3A-0540-4F17-99EC-F86A4ADA8342}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9309,7 +9309,249 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB1AB42C-7C51-481F-A4AC-EAA5DE7F43CA}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="194">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{061597E0-D971-4B3B-9B06-972B1532666F}" name="TablaDinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="97">
+  <location ref="A63:C85" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="28">
+        <item x="12"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de INDICADOR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB1AB42C-7C51-481F-A4AC-EAA5DE7F43CA}" name="TablaDinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="194">
   <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -9539,8 +9781,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="TablaDinámica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000003000000}" name="TablaDinámica4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A113:B115" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9729,8 +9971,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B36F8CB-F332-48F4-AF96-1B04F8CFCAED}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="95">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B36F8CB-F332-48F4-AF96-1B04F8CFCAED}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="95">
   <location ref="A20:C38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -9947,8 +10189,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3FF9C02-7A85-4191-9C9A-579AF1C072C4}" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3FF9C02-7A85-4191-9C9A-579AF1C072C4}" name="TablaDinámica5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A146:B148" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -10096,248 +10338,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="8" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{061597E0-D971-4B3B-9B06-972B1532666F}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="97">
-  <location ref="A63:C85" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="28">
-        <item x="12"/>
-        <item x="3"/>
-        <item x="19"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="23"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="22"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="8" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="21">
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de INDICADOR" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11602,7 +11602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11984,7 +11984,7 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:37" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="I42" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>EN TIEMPO DE RESPUESTA</v>
+        <v>PENDIENTE</v>
       </c>
       <c r="J42" s="22"/>
     </row>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="I43" s="20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>EN TIEMPO DE RESPUESTA</v>
+        <v>PENDIENTE</v>
       </c>
       <c r="J43" s="22"/>
     </row>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="J78" s="22"/>
     </row>
-    <row r="79" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>77</v>
       </c>
@@ -14463,7 +14463,6 @@
   <autoFilter ref="A2:J85" xr:uid="{BFA6C444-00F0-47CB-972E-B943D6794338}">
     <filterColumn colId="3">
       <filters>
-        <filter val="DERLY FAJARDO"/>
         <filter val="PAULA ANDREA OSPINA PATIÑO"/>
       </filters>
     </filterColumn>
